--- a/Pathway Database - Updated 2024-205.xlsx
+++ b/Pathway Database - Updated 2024-205.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba650176d78d5c06/Documents/GitHub/Data Extract from Web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A3E3CE62-B55D-4815-AB82-8382F9DA64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D13A0DF-896C-49FE-9EC8-E0F58F6F5CB7}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A3E3CE62-B55D-4815-AB82-8382F9DA64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AF5071-47AC-40B5-A7AF-75FDD51BAAE7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Power" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:L1033"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B111" sqref="B1:B1048576"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
